--- a/彩雅包装客户订单列表20191107修改(开发系统用)001(1).xlsx
+++ b/彩雅包装客户订单列表20191107修改(开发系统用)001(1).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\彩雅订单跟进表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12692384-0876-470C-B0A0-A5D80F16275C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="7" r:id="rId1"/>
@@ -19,430 +13,572 @@
     <sheet name="汇总" sheetId="4" r:id="rId4"/>
     <sheet name="生产单" sheetId="26" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="329">
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交货日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印刷费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外发加工费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="257">
   <si>
     <t>佛山市南海区彩雅包装有限公司
 客户订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>308706TF彩盒</t>
+  </si>
+  <si>
+    <t>注：</t>
+  </si>
+  <si>
+    <t>业务员</t>
+  </si>
+  <si>
+    <t>林贵堂</t>
+  </si>
+  <si>
+    <t>产品规格</t>
+  </si>
+  <si>
+    <t>330*65*635</t>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>CYDD2019110711</t>
+  </si>
+  <si>
+    <t>客户合同编号</t>
+  </si>
+  <si>
+    <t>YXL2019102401DGB</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>手填</t>
+  </si>
+  <si>
+    <t>跟单员</t>
+  </si>
+  <si>
+    <t>林汉远</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>益商隆</t>
+  </si>
+  <si>
+    <t>订单日期</t>
+  </si>
+  <si>
+    <t>交货日期</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>可选</t>
+  </si>
+  <si>
+    <t>箱形</t>
+  </si>
+  <si>
+    <t>单拼平口箱</t>
+  </si>
+  <si>
+    <t>订单数量</t>
+  </si>
+  <si>
+    <t>单价（元）</t>
+  </si>
+  <si>
+    <t>订单金额（元）</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>自动计算</t>
+  </si>
+  <si>
+    <t>加工工序</t>
+  </si>
+  <si>
+    <t>裱啤贴</t>
+  </si>
+  <si>
+    <t>啤板名称</t>
+  </si>
+  <si>
+    <t>啤板拼数</t>
+  </si>
+  <si>
+    <t>纸层数</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>印刷颜色</t>
+  </si>
+  <si>
+    <t>4色</t>
+  </si>
+  <si>
+    <t>印后处理</t>
+  </si>
+  <si>
+    <t>过油</t>
+  </si>
+  <si>
+    <t>包装要求</t>
+  </si>
+  <si>
+    <t>绳加半包</t>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品长</t>
+  </si>
+  <si>
+    <t>成品宽</t>
+  </si>
+  <si>
+    <t>成品高</t>
+  </si>
+  <si>
+    <t>面纸</t>
+  </si>
+  <si>
+    <t>面纸供应商</t>
+  </si>
+  <si>
+    <t>面纸1型号</t>
+  </si>
+  <si>
+    <t>面纸1长</t>
+  </si>
+  <si>
+    <t>面纸1宽</t>
+  </si>
+  <si>
+    <t>面纸1单价</t>
+  </si>
+  <si>
+    <t>面纸1数量</t>
+  </si>
+  <si>
+    <t>面纸1成本</t>
+  </si>
+  <si>
+    <t>面纸类型</t>
+  </si>
+  <si>
+    <t>面纸克数</t>
+  </si>
+  <si>
+    <t>面纸单价</t>
+  </si>
+  <si>
+    <t>面纸长计算公式</t>
+  </si>
+  <si>
+    <t>面纸宽计算公式</t>
+  </si>
+  <si>
+    <t>永运</t>
+  </si>
+  <si>
+    <t>350建晖</t>
+  </si>
+  <si>
+    <t>D8*2+F8*2+5</t>
+  </si>
+  <si>
+    <t>H8+F8+3</t>
+  </si>
+  <si>
+    <t>面纸2型号</t>
+  </si>
+  <si>
+    <t>面纸2长</t>
+  </si>
+  <si>
+    <t>面纸2宽</t>
+  </si>
+  <si>
+    <t>面纸2单价</t>
+  </si>
+  <si>
+    <t>面纸2数量</t>
+  </si>
+  <si>
+    <t>面纸2成本</t>
+  </si>
+  <si>
+    <t>（可新增可删除）</t>
+  </si>
+  <si>
+    <t>坑纸</t>
+  </si>
+  <si>
+    <t>坑纸供应商</t>
+  </si>
+  <si>
+    <t>坑纸1型号</t>
+  </si>
+  <si>
+    <t>坑纸1高</t>
+  </si>
+  <si>
+    <t>坑纸1长</t>
+  </si>
+  <si>
+    <t>坑纸1单价</t>
+  </si>
+  <si>
+    <t>坑纸1数量</t>
+  </si>
+  <si>
+    <t>坑纸1成本</t>
+  </si>
+  <si>
+    <t>兆俊</t>
+  </si>
+  <si>
+    <t>BT E坑</t>
+  </si>
+  <si>
+    <t>坑纸2型号</t>
+  </si>
+  <si>
+    <t>坑纸2长</t>
+  </si>
+  <si>
+    <t>坑纸2宽</t>
+  </si>
+  <si>
+    <t>坑纸2单价</t>
+  </si>
+  <si>
+    <t>坑纸2数量</t>
+  </si>
+  <si>
+    <t>坑纸2成本</t>
+  </si>
+  <si>
+    <t>表面处理</t>
+  </si>
+  <si>
+    <t>表面处理供应商</t>
+  </si>
+  <si>
+    <t>表面处理要求</t>
+  </si>
+  <si>
+    <t>表面处理面积</t>
+  </si>
+  <si>
+    <t>表面处理平方价</t>
+  </si>
+  <si>
+    <t>表面处理单价</t>
+  </si>
+  <si>
+    <t>表面处理数量</t>
+  </si>
+  <si>
+    <t>表面处理成本</t>
+  </si>
+  <si>
+    <t>自定</t>
+  </si>
+  <si>
+    <t>磨光</t>
+  </si>
+  <si>
+    <t>印刷</t>
+  </si>
+  <si>
+    <t>印刷厂家</t>
+  </si>
+  <si>
+    <t>印刷机类型</t>
+  </si>
+  <si>
+    <t>印刷费用</t>
+  </si>
+  <si>
+    <t>恒亿达</t>
+  </si>
+  <si>
+    <t>对开机</t>
+  </si>
+  <si>
+    <t>加工费</t>
+  </si>
+  <si>
+    <t>加工面积</t>
+  </si>
+  <si>
+    <t>加工数量</t>
+  </si>
+  <si>
+    <t>加工费计费基准</t>
+  </si>
+  <si>
+    <t>加工单价</t>
+  </si>
+  <si>
+    <t>人工费用</t>
   </si>
   <si>
     <t>其它费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税金</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>费用1</t>
+  </si>
+  <si>
+    <t>费用2</t>
   </si>
   <si>
     <t>费用3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>费用4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>费用5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定</t>
-  </si>
-  <si>
-    <t>表面处理单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面处理成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印刷厂家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用备注</t>
+  </si>
+  <si>
+    <t>业务费</t>
   </si>
   <si>
     <t>啤板费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+  </si>
+  <si>
+    <t>外发加工费</t>
+  </si>
+  <si>
+    <t>其它费用金额</t>
+  </si>
+  <si>
+    <t>总成本</t>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单进度</t>
+  </si>
+  <si>
+    <t>工序计划实施时间</t>
+  </si>
+  <si>
+    <t>当前责任人</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>订单金额</t>
+  </si>
+  <si>
+    <t>啤板到厂时间</t>
+  </si>
+  <si>
+    <t>材料来源</t>
+  </si>
+  <si>
+    <t>坑纸1宽</t>
+  </si>
+  <si>
+    <t>人工单价</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>120双铜</t>
+  </si>
+  <si>
+    <t>150-157双铜</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>250  汇泰白板</t>
+  </si>
+  <si>
+    <t>250永泰白板</t>
+  </si>
+  <si>
+    <t>240江龙白板</t>
+  </si>
+  <si>
+    <t>230建晖</t>
+  </si>
+  <si>
+    <t>一吨价钱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1T/1000G)/1000*可选（350）*面纸面积 </t>
+  </si>
+  <si>
+    <t>250建晖</t>
+  </si>
+  <si>
+    <t>300建晖</t>
+  </si>
+  <si>
+    <t>400建晖</t>
+  </si>
+  <si>
+    <t>450建晖</t>
+  </si>
+  <si>
+    <t>210白卡</t>
+  </si>
+  <si>
+    <t>230白卡</t>
+  </si>
+  <si>
+    <t>250白卡</t>
+  </si>
+  <si>
+    <t>300白卡</t>
+  </si>
+  <si>
+    <t>350白卡</t>
+  </si>
+  <si>
+    <t>400白卡</t>
+  </si>
+  <si>
+    <t>230牛皮</t>
+  </si>
+  <si>
+    <t>120牛皮</t>
+  </si>
+  <si>
+    <t>180牛皮</t>
+  </si>
+  <si>
+    <t>坑纸到货时间</t>
+  </si>
+  <si>
+    <t>CYDD2019092801</t>
+  </si>
+  <si>
+    <t>黄强</t>
+  </si>
+  <si>
+    <t>益圆包装</t>
+  </si>
+  <si>
+    <t>平口箱绿色款A板</t>
+  </si>
+  <si>
+    <t>48*38*38</t>
+  </si>
+  <si>
+    <t>平口箱</t>
+  </si>
+  <si>
+    <t>面纸加坑纸</t>
+  </si>
+  <si>
+    <t>光胶</t>
+  </si>
+  <si>
+    <t>绳</t>
+  </si>
+  <si>
+    <t>分AB板</t>
+  </si>
+  <si>
+    <t>锦鸿</t>
+  </si>
+  <si>
+    <t>300白板</t>
+  </si>
+  <si>
+    <t>鸿飞</t>
+  </si>
+  <si>
+    <t>力舟</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>CYDD2019092802</t>
+  </si>
+  <si>
+    <t>平口箱绿色款B板</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟单员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印刷颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印后处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面处理要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面处理供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面处理面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面处理数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面处理平方价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它费用金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啤板拼数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸1型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸1长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸1宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸1单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸1数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸1成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸2型号</t>
-  </si>
-  <si>
-    <t>面纸2长</t>
-  </si>
-  <si>
-    <t>面纸2宽</t>
-  </si>
-  <si>
-    <t>面纸2单价</t>
-  </si>
-  <si>
-    <t>面纸2数量</t>
-  </si>
-  <si>
-    <t>面纸2成本</t>
-  </si>
-  <si>
-    <t>坑纸1型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸1长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸1宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸1单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸1数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸1成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸2型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸2长</t>
-  </si>
-  <si>
-    <t>坑纸2宽</t>
-  </si>
-  <si>
-    <t>坑纸2单价</t>
-  </si>
-  <si>
-    <t>坑纸2数量</t>
-  </si>
-  <si>
-    <t>坑纸2成本</t>
-  </si>
-  <si>
-    <t>单价（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单金额（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48*38*38</t>
-  </si>
-  <si>
-    <t>CYDD2019092801</t>
-  </si>
-  <si>
-    <t>平口箱绿色款A板</t>
-  </si>
-  <si>
-    <t>黄强</t>
-  </si>
-  <si>
-    <t>益圆包装</t>
-  </si>
-  <si>
-    <t>绳</t>
-  </si>
-  <si>
-    <t>光胶</t>
-  </si>
-  <si>
-    <t>面纸加坑纸</t>
-  </si>
-  <si>
-    <t>分AB板</t>
-  </si>
-  <si>
-    <t>锦鸿</t>
-  </si>
-  <si>
-    <t>300白板</t>
-  </si>
-  <si>
-    <t>林汉远</t>
+    <t>CYDD2019092803</t>
+  </si>
+  <si>
+    <t>平口箱红色款A板</t>
+  </si>
+  <si>
+    <t>CYDD2019092804</t>
+  </si>
+  <si>
+    <t>平口箱红色款B板</t>
+  </si>
+  <si>
+    <t>CYDD2019092805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308606TF 彩盒 </t>
+  </si>
+  <si>
+    <t>350*70*340</t>
   </si>
   <si>
     <t>上下扣插盒</t>
   </si>
   <si>
-    <t>4色</t>
-  </si>
-  <si>
-    <t>备注：</t>
-  </si>
-  <si>
-    <t>平口箱</t>
-  </si>
-  <si>
-    <t>鸿飞</t>
-  </si>
-  <si>
-    <t>力舟</t>
-  </si>
-  <si>
-    <t>平口箱绿色款B板</t>
-  </si>
-  <si>
-    <t>CYDD2019092802</t>
-  </si>
-  <si>
-    <t>CYDD2019092803</t>
-  </si>
-  <si>
-    <t>平口箱红色款A板</t>
-  </si>
-  <si>
-    <t>CYDD2019092804</t>
-  </si>
-  <si>
-    <t>平口箱红色款B板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308606TF 彩盒 </t>
-  </si>
-  <si>
-    <t>林贵堂</t>
-  </si>
-  <si>
-    <t>350*70*340</t>
-  </si>
-  <si>
-    <t>CYDD2019092805</t>
-  </si>
-  <si>
     <t>YXL20190829DGB</t>
   </si>
   <si>
-    <t>益商隆</t>
-  </si>
-  <si>
-    <t>磨光</t>
+    <t>4+1专</t>
   </si>
   <si>
     <t>350白板</t>
   </si>
   <si>
-    <t>兆俊</t>
-  </si>
-  <si>
     <t>AT E坑</t>
   </si>
   <si>
@@ -461,30 +597,10 @@
     <t>1245*70*340</t>
   </si>
   <si>
-    <t>4+1专</t>
-  </si>
-  <si>
     <t>备注：按照以前的啤板1245*70*340mm</t>
   </si>
   <si>
-    <t>加工工序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啤板名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸到货时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啤板到厂时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>CYDD2019100501</t>
   </si>
   <si>
     <t>白盒</t>
@@ -493,33 +609,30 @@
     <t>80*65*400</t>
   </si>
   <si>
+    <t>啤贴</t>
+  </si>
+  <si>
     <t>YXL20190926B048</t>
   </si>
   <si>
-    <t>啤贴</t>
-  </si>
-  <si>
-    <t>面纸</t>
-  </si>
-  <si>
     <t>不作处理</t>
   </si>
   <si>
     <t>全包</t>
   </si>
   <si>
+    <t>CYDD2019100601</t>
+  </si>
+  <si>
+    <t>罗生</t>
+  </si>
+  <si>
+    <t>水性环氧彩砂平口箱A板</t>
+  </si>
+  <si>
     <t>475*325*260</t>
   </si>
   <si>
-    <t>水性环氧彩砂平口箱A板</t>
-  </si>
-  <si>
-    <t>CYDD2019100601</t>
-  </si>
-  <si>
-    <t>罗生</t>
-  </si>
-  <si>
     <t>裱啤打钉</t>
   </si>
   <si>
@@ -535,40 +648,37 @@
     <t>649B BC坑</t>
   </si>
   <si>
+    <t>庆隆</t>
+  </si>
+  <si>
     <t>水性环氧彩砂平口箱B板</t>
   </si>
   <si>
+    <t>CYDD2019100603</t>
+  </si>
+  <si>
     <t>环氧彩砂平口箱</t>
   </si>
   <si>
     <t>435*430*380</t>
   </si>
   <si>
-    <t>CYDD2019100603</t>
-  </si>
-  <si>
     <t>恒益达</t>
   </si>
   <si>
     <t>CYDD2019100604</t>
   </si>
   <si>
+    <t>水性环氧彩砂扣底盒</t>
+  </si>
+  <si>
     <t>92*62*243</t>
   </si>
   <si>
-    <t>水性环氧彩砂扣底盒</t>
-  </si>
-  <si>
-    <t>绳加半包</t>
-  </si>
-  <si>
-    <t>BT E坑</t>
-  </si>
-  <si>
-    <t>裱啤贴</t>
-  </si>
-  <si>
-    <t>庆隆</t>
+    <t>CYDD2019100701</t>
+  </si>
+  <si>
+    <t>方小姐</t>
   </si>
   <si>
     <t>剪刀吊牌</t>
@@ -577,40 +687,37 @@
     <t>119.5*313.5</t>
   </si>
   <si>
-    <t>CYDD2019100701</t>
+    <t>裱啤</t>
+  </si>
+  <si>
+    <t>吊牌</t>
   </si>
   <si>
     <t>林灿全</t>
   </si>
   <si>
-    <t>方小姐</t>
-  </si>
-  <si>
-    <t>吊牌</t>
-  </si>
-  <si>
-    <t>裱啤</t>
+    <t>白卡纸</t>
   </si>
   <si>
     <t>纸箱装</t>
   </si>
   <si>
-    <t>白卡纸</t>
-  </si>
-  <si>
     <t>先啤对折线，对裱后再啤一次，利旧1092*920纸130张作为印刷及生产损耗</t>
   </si>
   <si>
     <t>奇艺彩</t>
   </si>
   <si>
+    <t>CYDD2019100702</t>
+  </si>
+  <si>
     <t>感谢卡</t>
   </si>
   <si>
     <t>109*149</t>
   </si>
   <si>
-    <t>CYDD2019100702</t>
+    <t>利旧白卡纸</t>
   </si>
   <si>
     <t>先啤对折线，对裱后再啤一次，利旧1092*920纸260张</t>
@@ -619,571 +726,150 @@
     <t>利旧</t>
   </si>
   <si>
-    <t>利旧白卡纸</t>
-  </si>
-  <si>
-    <t>订单数量</t>
-  </si>
-  <si>
-    <t>订单数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工序计划实施时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前责任人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
-    <t>业务员</t>
-  </si>
-  <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>产品规格</t>
-  </si>
-  <si>
-    <t>加工工序</t>
-  </si>
-  <si>
-    <t>交货日期</t>
-  </si>
-  <si>
-    <t>工单进度</t>
-  </si>
-  <si>
-    <t>工序计划实施时间</t>
-  </si>
-  <si>
-    <t>当前责任人</t>
-  </si>
-  <si>
-    <t>箱形</t>
-  </si>
-  <si>
-    <t>客户合同编号</t>
-  </si>
-  <si>
-    <t>跟单员</t>
-  </si>
-  <si>
-    <t>订单日期</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>订单金额</t>
-  </si>
-  <si>
-    <t>啤板名称</t>
-  </si>
-  <si>
-    <t>啤板拼数</t>
-  </si>
-  <si>
-    <t>啤板到厂时间</t>
-  </si>
-  <si>
-    <t>材料来源</t>
-  </si>
-  <si>
-    <t>印刷颜色</t>
-  </si>
-  <si>
-    <t>印后处理</t>
-  </si>
-  <si>
-    <t>包装要求</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>面纸供应商</t>
-  </si>
-  <si>
-    <t>面纸1型号</t>
-  </si>
-  <si>
-    <t>面纸1长</t>
-  </si>
-  <si>
-    <t>面纸1宽</t>
-  </si>
-  <si>
-    <t>面纸1单价</t>
-  </si>
-  <si>
-    <t>面纸1数量</t>
-  </si>
-  <si>
-    <t>面纸1成本</t>
-  </si>
-  <si>
-    <t>坑纸供应商</t>
-  </si>
-  <si>
-    <t>坑纸1型号</t>
-  </si>
-  <si>
-    <t>坑纸1长</t>
-  </si>
-  <si>
-    <t>坑纸1宽</t>
-  </si>
-  <si>
-    <t>坑纸1单价</t>
-  </si>
-  <si>
-    <t>坑纸1数量</t>
-  </si>
-  <si>
-    <t>坑纸1成本</t>
-  </si>
-  <si>
-    <t>坑纸2型号</t>
-  </si>
-  <si>
-    <t>表面处理供应商</t>
-  </si>
-  <si>
-    <t>表面处理要求</t>
-  </si>
-  <si>
-    <t>表面处理面积</t>
-  </si>
-  <si>
-    <t>表面处理平方价</t>
-  </si>
-  <si>
-    <t>表面处理单价</t>
-  </si>
-  <si>
-    <t>表面处理数量</t>
-  </si>
-  <si>
-    <t>表面处理成本</t>
-  </si>
-  <si>
-    <t>印刷厂家</t>
-  </si>
-  <si>
-    <t>印刷费用</t>
-  </si>
-  <si>
-    <t>人工单价</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>人工费用</t>
-  </si>
-  <si>
-    <t>啤板费</t>
-  </si>
-  <si>
-    <t>外发加工费</t>
-  </si>
-  <si>
-    <t>运费</t>
-  </si>
-  <si>
-    <t>税金</t>
-  </si>
-  <si>
-    <t>利润</t>
-  </si>
-  <si>
-    <t>费用1</t>
-  </si>
-  <si>
-    <t>费用2</t>
-  </si>
-  <si>
-    <t>费用3</t>
-  </si>
-  <si>
-    <t>费用4</t>
-  </si>
-  <si>
-    <t>费用5</t>
-  </si>
-  <si>
-    <t>总成本</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>CYDD2019100501</t>
-  </si>
-  <si>
-    <t>恒亿达</t>
-  </si>
-  <si>
-    <t>永运</t>
-  </si>
-  <si>
-    <t>林贵堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230牛皮</t>
-  </si>
-  <si>
-    <t>裱啤贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120双铜</t>
-  </si>
-  <si>
-    <t>4色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绳加半包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BT E坑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林汉远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YXL2019102401DGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYDD2019110711</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330*65*635</t>
-  </si>
-  <si>
-    <t>330*65*635</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>益商隆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>308706TF彩盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150-157双铜</t>
-  </si>
-  <si>
-    <t>250  汇泰白板</t>
-  </si>
-  <si>
-    <t>250永泰白板</t>
-  </si>
-  <si>
-    <t>240江龙白板</t>
-  </si>
-  <si>
-    <t>230建晖</t>
-  </si>
-  <si>
-    <t>250建晖</t>
-  </si>
-  <si>
-    <t>350建晖</t>
-  </si>
-  <si>
-    <t>400建晖</t>
-  </si>
-  <si>
-    <t>450建晖</t>
-  </si>
-  <si>
-    <t>210白卡</t>
-  </si>
-  <si>
-    <t>230白卡</t>
-  </si>
-  <si>
-    <t>250白卡</t>
-  </si>
-  <si>
-    <t>300白卡</t>
-  </si>
-  <si>
-    <t>350白卡</t>
-  </si>
-  <si>
-    <t>400白卡</t>
-  </si>
-  <si>
-    <t>120牛皮</t>
-  </si>
-  <si>
-    <t>180牛皮</t>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300建晖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>350建晖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸克数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸长计算公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸宽计算公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H8+F8+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D8*2+F8*2+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单拼平口箱</t>
-  </si>
-  <si>
-    <t>业务费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彩雅包装生产单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>印刷名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成品尺寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">交货日期 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拼板数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面纸数量</t>
   </si>
   <si>
     <t>成品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用纸品类</t>
+  </si>
+  <si>
+    <t>面纸长（毫米）</t>
+  </si>
+  <si>
+    <t>面纸宽（毫米）</t>
   </si>
   <si>
     <t>坑纸类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坑纸高（厘米）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坑纸长（厘米）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坑纸数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工序名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>完成计价数量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>计件收入（元）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>完成人员签名</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>完成时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>裱纸</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>手啤</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>自动啤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用纸品类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸宽（毫米）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面纸长（毫米）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坑纸1高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印刷机类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对开机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（可新增可删除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印刷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工费计费基准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1192,92 +878,49 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1285,43 +928,125 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1336,84 +1061,207 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1423,294 +1271,625 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1759,7 +1938,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1794,7 +1973,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1968,27 +2147,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545E9F70-8B67-427F-99E1-B08AEE24C015}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
@@ -1998,704 +2171,704 @@
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="9" style="20"/>
-    <col min="12" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="29"/>
+    <col min="12" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" ht="51.75" customHeight="1" spans="1:8">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" ht="50.1" customHeight="1" spans="1:11">
+      <c r="A2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="K2" s="72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="50.1" customHeight="1" spans="1:12">
+      <c r="A3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="K2" s="60" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="G3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="50.1" customHeight="1" spans="1:12">
+      <c r="A4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="41">
+        <v>43776</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="41">
+        <v>43786</v>
+      </c>
+      <c r="K4" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="50.1" customHeight="1" spans="1:12">
+      <c r="A5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D5" s="43">
+        <v>514</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="47">
-        <v>43776</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="47">
-        <v>43786</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="18">
-        <v>514</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="F5" s="44">
         <v>8.5</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="44">
         <f>F5*D5</f>
         <v>4369</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="K5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="36">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="31">
+        <v>330</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="31">
+        <v>65</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="31">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" ht="61.5" customHeight="1" spans="1:13">
+      <c r="A9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="44">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D8" s="22">
-        <v>330</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="22">
-        <v>65</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="H8" s="22">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="K9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="L9" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="M9" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="17" t="s">
+    </row>
+    <row r="10" ht="50.1" customHeight="1" spans="1:13">
+      <c r="A10" s="31"/>
+      <c r="B10" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="C10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="24">
+      <c r="D10" s="49">
         <f>IF(B5="单拼平口箱",D8*2+F8*2+5,"重新选择")</f>
         <v>795</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="49">
         <f>IF(B5="单拼平口箱",F8+H8+5,"重新选择")</f>
         <v>705</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="49">
         <f>D10*E10/1000000*K10/1000*J10/1000</f>
-        <v>0.85724651249999995</v>
-      </c>
-      <c r="G10" s="28">
+        <v>0.8572465125</v>
+      </c>
+      <c r="G10" s="50">
         <f>D5/F6+150</f>
         <v>664</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="49">
         <f>G10*F10</f>
         <v>569.2116843</v>
       </c>
-      <c r="I10" s="25" t="str">
+      <c r="I10" s="48" t="str">
         <f>C10</f>
         <v>350建晖</v>
       </c>
-      <c r="J10" s="25" t="str">
+      <c r="J10" s="48" t="str">
         <f>LEFT(I10,2*LEN(I10)-LENB(I10))</f>
         <v>350</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="75">
         <f>VLOOKUP(I10,材料单!B:C,2)</f>
         <v>4370</v>
       </c>
-      <c r="L10" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="M10" s="61" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="17" t="s">
+      <c r="L10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="M10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="17" t="s">
+    </row>
+    <row r="11" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A11" s="31"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="D11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="F11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17">
+      <c r="G11" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A12" s="31"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31">
         <f>G12*F12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="17" t="s">
+    <row r="13" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A13" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="B13" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="C13" s="31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="D13" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A14" s="31"/>
+      <c r="B14" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="49">
         <f>D10-0.5</f>
         <v>794.5</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="49">
         <f>E10-0.5</f>
         <v>704.5</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="49">
         <v>0.78</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="50">
         <f>D5/F6+30</f>
         <v>544</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="49">
         <f>G14*F14</f>
         <v>424.32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
-      <c r="B18" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="26">
+    <row r="15" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A15" s="31"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A16" s="31"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A17" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A18" s="35"/>
+      <c r="B18" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="53">
         <f>D10*E10*0.000001</f>
-        <v>0.56047499999999995</v>
-      </c>
-      <c r="E18" s="27">
+        <v>0.560475</v>
+      </c>
+      <c r="E18" s="54">
         <f>IF(C18="磨光",0.2,"重新选择")</f>
         <v>0.2</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="49">
         <f>D18*E18</f>
         <v>0.112095</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="31">
         <v>530</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="49">
         <f>G18*F18</f>
-        <v>59.410350000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
-        <v>319</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
-      <c r="B20" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="D20" s="53">
+        <v>59.41035</v>
+      </c>
+    </row>
+    <row r="19" ht="50.1" customHeight="1" spans="1:4">
+      <c r="A19" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" ht="50.1" customHeight="1" spans="1:4">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="59">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="55">
+    <row r="21" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A21" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A22" s="35"/>
+      <c r="B22" s="63">
         <f>D10*E10/1000000</f>
-        <v>0.56047499999999995</v>
-      </c>
-      <c r="C22" s="54">
+        <v>0.560475</v>
+      </c>
+      <c r="C22" s="64">
         <f>D5</f>
         <v>514</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="63">
         <f>IF(H6="三",0.6,"重新选择")</f>
         <v>0.6</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="63">
         <f>B22*D22</f>
-        <v>0.33628499999999995</v>
-      </c>
-      <c r="F22" s="55">
+        <v>0.336285</v>
+      </c>
+      <c r="F22" s="63">
         <f>C22*E22</f>
-        <v>172.85048999999998</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18">
+        <v>172.85049</v>
+      </c>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+    </row>
+    <row r="23" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A23" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A24" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43">
         <v>500</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="43">
         <v>100</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="43">
         <v>200</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="43">
         <v>300</v>
       </c>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="65">
+      <c r="H25" s="67"/>
+    </row>
+    <row r="26" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A26" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="68">
         <f>SUM(H10,H12,H14,H16,H18,F22,D20,F25,D25,C25,B25,E25,F25,G25,H25)</f>
         <v>3725.7925243</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
-    </row>
-    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-    </row>
-    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+    </row>
+    <row r="28" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <mergeCells count="11">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="A27:H28"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A16"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A27:H28"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{A4E34679-F7F5-42E3-8FE0-6404394595BB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"自定,广江,黄海生,华宏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 C18" xr:uid="{73B4114E-D0B8-4E0D-A064-729B77BA486E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>"单拼平口箱,双拼平口箱,扣底盒,双插盒"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 C18">
       <formula1>"待定,不作处理,光胶,哑胶,过油,磨光"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B16" xr:uid="{AED65904-4023-4A4A-A579-FD2CE1B239BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B16">
       <formula1>"无,兆俊,成华,鸿飞,信合,利旧"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B12" xr:uid="{9E00EA97-0A1F-4F61-8886-D4B8E98FB833}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+      <formula1>"150-157双铜,250汇泰白板,250永泰白板,240江龙白板,230建晖,250建晖,300建晖,350建晖,400建晖,450建晖,210白卡,230白卡,250白卡,300白卡,350白卡,400白卡,230牛皮,120牛皮,180牛皮"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>"无,力舟,庆隆,恒亿达,奇艺彩,彩一杰,光南,上朗彩印,彩一杰加庆隆"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B12">
       <formula1>"无,永运,锦鸿,光南,利旧,金阳高"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{359649B4-397D-4DFE-93EE-C07D6B39B6DE}">
-      <formula1>"无,力舟,庆隆,恒亿达,奇艺彩,彩一杰,光南,上朗彩印,彩一杰加庆隆"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{9D129A30-CA45-451F-BED9-79832C0BE46D}">
-      <formula1>"150-157双铜,250汇泰白板,250永泰白板,240江龙白板,230建晖,250建晖,300建晖,350建晖,400建晖,450建晖,210白卡,230白卡,250白卡,300白卡,350白卡,400白卡,230牛皮,120牛皮,180牛皮"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{D79331AF-463C-4C88-89BC-CBE2FF7CF668}">
-      <formula1>"单拼平口箱,双拼平口箱,扣底盒,双插盒"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3179B0-AFA5-45D8-A190-880C00BFF8A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
@@ -2703,237 +2876,237 @@
     <col min="14" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="11" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" s="24" customFormat="1" ht="81.75" customHeight="1" spans="1:76">
+      <c r="A1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR1" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BK1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="BS1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="BT1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="BU1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="BV1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="BW1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BX1" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BX1" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" spans="2:76">
       <c r="B2" t="str">
         <f>订单!F3</f>
         <v>CYDD2019110711</v>
@@ -3012,7 +3185,7 @@
       </c>
       <c r="X2" t="str">
         <f>订单!F7</f>
-        <v>磨光</v>
+        <v>过油</v>
       </c>
       <c r="Y2" t="str">
         <f>订单!H7</f>
@@ -3040,7 +3213,7 @@
       </c>
       <c r="AE2">
         <f>订单!F10</f>
-        <v>0.85724651249999995</v>
+        <v>0.8572465125</v>
       </c>
       <c r="AF2">
         <f>订单!G10</f>
@@ -3136,7 +3309,7 @@
       </c>
       <c r="BC2">
         <f>订单!D18</f>
-        <v>0.56047499999999995</v>
+        <v>0.560475</v>
       </c>
       <c r="BD2">
         <f>订单!E18</f>
@@ -3152,7 +3325,7 @@
       </c>
       <c r="BG2">
         <f>订单!H18</f>
-        <v>59.410350000000001</v>
+        <v>59.41035</v>
       </c>
       <c r="BH2">
         <f>订单!A20</f>
@@ -3168,7 +3341,7 @@
       </c>
       <c r="BK2">
         <f>订单!B22</f>
-        <v>0.56047499999999995</v>
+        <v>0.560475</v>
       </c>
       <c r="BL2">
         <f>订单!C22</f>
@@ -3224,381 +3397,388 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF46EE11-3286-49E6-BC41-A4A3E88E25E2}">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="C1">
         <v>6370</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>6270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>4170</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>4170</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>4150</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>4670</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>4570</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>4470</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>4370</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="C18">
         <v>4370</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="C20">
         <v>4470</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="C22">
         <v>6270</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="C24">
         <v>5770</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c r="C26">
         <v>5670</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="C28">
         <v>5670</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="C30">
         <v>5670</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="C32">
         <v>5670</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C34">
         <v>4330</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="C36">
         <v>4770</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="C38">
         <v>4530</v>
@@ -3608,274 +3788,275 @@
   <sortState ref="A2:V38">
     <sortCondition ref="A2:A38"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADD4B0E-5BEE-4F28-BEFF-E2AF83FBB011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
+    <row r="1" ht="40.5" spans="1:77">
+      <c r="A1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AI1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AK1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AN1" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR1" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS1" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT1" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AL1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AQ1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AS1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AT1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AZ1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="BE1" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="BF1" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="BH1" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="BI1" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="BJ1" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="BK1" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL1" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM1" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN1" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="BO1" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="BQ1" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="BS1" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="BT1" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU1" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV1" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="BW1" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="BX1" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="BY1" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="AU1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO1" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX1" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY1" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="2:76">
       <c r="B2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="G2">
         <v>500</v>
@@ -3884,13 +4065,13 @@
         <v>43749</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P2">
         <v>43736</v>
@@ -3905,25 +4086,25 @@
         <v>0.5</v>
       </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="W2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="Y2" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="Z2" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="AA2" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB2" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="AC2">
         <v>78</v>
@@ -3959,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -3998,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="BA2" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB2" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="BC2">
         <v>0.72</v>
@@ -4010,7 +4191,7 @@
         <v>0.4</v>
       </c>
       <c r="BE2">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="BF2">
         <v>1020</v>
@@ -4019,7 +4200,7 @@
         <v>293.76</v>
       </c>
       <c r="BH2" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="BI2">
         <v>500</v>
@@ -4031,7 +4212,7 @@
         <v>1020</v>
       </c>
       <c r="BL2">
-        <v>438.59999999999997</v>
+        <v>438.6</v>
       </c>
       <c r="BM2">
         <v>150</v>
@@ -4067,24 +4248,24 @@
         <v>4559.26</v>
       </c>
       <c r="BX2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:76">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="G3">
         <v>500</v>
@@ -4093,13 +4274,13 @@
         <v>43749</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P3">
         <v>43736</v>
@@ -4114,101 +4295,101 @@
         <v>0.5</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="W3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="s">
         <v>93</v>
       </c>
-      <c r="X3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>17</v>
-      </c>
       <c r="BB3">
         <v>0</v>
       </c>
@@ -4228,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="BH3" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="BI3">
         <v>0</v>
@@ -4276,24 +4457,24 @@
         <v>0</v>
       </c>
       <c r="BX3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:76">
       <c r="B4" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="G4">
         <v>500</v>
@@ -4302,13 +4483,13 @@
         <v>43749</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P4">
         <v>43736</v>
@@ -4323,25 +4504,25 @@
         <v>0.5</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="W4" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="X4" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="Z4" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="AA4" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB4" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="AC4">
         <v>78</v>
@@ -4377,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="AN4" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -4416,10 +4597,10 @@
         <v>0</v>
       </c>
       <c r="BA4" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB4" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="BC4">
         <v>0.72</v>
@@ -4428,7 +4609,7 @@
         <v>0.4</v>
       </c>
       <c r="BE4">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="BF4">
         <v>1020</v>
@@ -4437,7 +4618,7 @@
         <v>293.76</v>
       </c>
       <c r="BH4" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="BI4">
         <v>500</v>
@@ -4449,7 +4630,7 @@
         <v>1020</v>
       </c>
       <c r="BL4">
-        <v>438.59999999999997</v>
+        <v>438.6</v>
       </c>
       <c r="BM4">
         <v>150</v>
@@ -4485,24 +4666,24 @@
         <v>4559.26</v>
       </c>
       <c r="BX4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:76">
       <c r="B5" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="G5">
         <v>500</v>
@@ -4511,13 +4692,13 @@
         <v>43749</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P5">
         <v>43736</v>
@@ -4532,186 +4713,186 @@
         <v>0.5</v>
       </c>
       <c r="V5" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="W5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="s">
         <v>93</v>
       </c>
-      <c r="X5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:76">
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -4720,13 +4901,13 @@
         <v>43746</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P6">
         <v>43736</v>
@@ -4741,25 +4922,25 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="W6" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="X6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB6" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="AC6">
         <v>54</v>
@@ -4795,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="AN6" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AO6" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="AP6">
         <v>53.5</v>
@@ -4834,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="BC6">
         <v>0.46</v>
@@ -4846,28 +5027,28 @@
         <v>0.2</v>
       </c>
       <c r="BE6">
-        <v>9.2000000000000012E-2</v>
+        <v>0.092</v>
       </c>
       <c r="BF6">
         <v>1030</v>
       </c>
       <c r="BG6">
-        <v>94.760000000000019</v>
+        <v>94.76</v>
       </c>
       <c r="BH6" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="BI6">
         <v>700</v>
       </c>
       <c r="BJ6">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="BK6">
         <v>1030</v>
       </c>
       <c r="BL6">
-        <v>288.40000000000003</v>
+        <v>288.4</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -4903,24 +5084,24 @@
         <v>2613.96</v>
       </c>
       <c r="BX6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:76">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -4929,13 +5110,13 @@
         <v>43746</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P7">
         <v>43736</v>
@@ -4950,25 +5131,25 @@
         <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="W7" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB7" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="AC7">
         <v>83.8</v>
@@ -4983,7 +5164,7 @@
         <v>1280</v>
       </c>
       <c r="AG7">
-        <v>2316.8000000000002</v>
+        <v>2316.8</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -5004,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="AN7" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AO7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="AP7">
         <v>83.5</v>
@@ -5043,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="BA7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB7" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="BC7">
         <v>1.21</v>
@@ -5055,7 +5236,7 @@
         <v>0.4</v>
       </c>
       <c r="BE7">
-        <v>0.48399999999999999</v>
+        <v>0.484</v>
       </c>
       <c r="BF7">
         <v>1030</v>
@@ -5064,7 +5245,7 @@
         <v>498.52</v>
       </c>
       <c r="BH7" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="BI7">
         <v>700</v>
@@ -5112,42 +5293,42 @@
         <v>5919.52</v>
       </c>
       <c r="BX7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:76">
       <c r="B8" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="G8">
         <v>2000</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="I8">
         <v>43748</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="N8" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P8">
         <v>43743</v>
@@ -5159,7 +5340,7 @@
         <v>1000</v>
       </c>
       <c r="S8" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -5168,25 +5349,25 @@
         <v>43663</v>
       </c>
       <c r="V8" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="X8" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="Y8" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB8" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="AC8">
         <v>640</v>
@@ -5222,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="AN8" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -5261,10 +5442,10 @@
         <v>0</v>
       </c>
       <c r="BA8" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB8" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -5282,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="BH8" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="BI8">
         <v>0</v>
@@ -5330,42 +5511,42 @@
         <v>661</v>
       </c>
       <c r="BX8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:76">
       <c r="B9" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="G9">
         <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="I9">
         <v>43758</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P9">
         <v>43744</v>
@@ -5377,7 +5558,7 @@
         <v>1675</v>
       </c>
       <c r="S9" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="T9">
         <v>0.5</v>
@@ -5386,25 +5567,25 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="W9" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB9" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="AC9">
         <v>61</v>
@@ -5413,13 +5594,13 @@
         <v>86.4</v>
       </c>
       <c r="AE9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF9">
         <v>390</v>
       </c>
       <c r="AG9">
-        <v>214.50000000000003</v>
+        <v>214.5</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -5440,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="AN9" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="AO9" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="AP9">
         <v>60</v>
@@ -5479,10 +5660,10 @@
         <v>0</v>
       </c>
       <c r="BA9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="BC9">
         <v>0.53</v>
@@ -5491,16 +5672,16 @@
         <v>0.2</v>
       </c>
       <c r="BE9">
-        <v>0.10600000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="BF9">
         <v>270</v>
       </c>
       <c r="BG9">
-        <v>28.620000000000005</v>
+        <v>28.62</v>
       </c>
       <c r="BH9" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="BI9">
         <v>400</v>
@@ -5548,42 +5729,42 @@
         <v>1055.68</v>
       </c>
       <c r="BX9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:76">
       <c r="B10" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="I10">
         <v>43758</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P10">
         <v>43744</v>
@@ -5595,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="T10">
         <v>0.5</v>
@@ -5604,25 +5785,25 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="W10" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB10" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="AC10">
         <v>61</v>
@@ -5631,13 +5812,13 @@
         <v>86.4</v>
       </c>
       <c r="AE10">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF10">
         <v>390</v>
       </c>
       <c r="AG10">
-        <v>214.50000000000003</v>
+        <v>214.5</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -5658,10 +5839,10 @@
         <v>0</v>
       </c>
       <c r="AN10" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="AO10" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="AP10">
         <v>60</v>
@@ -5697,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="BA10" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB10" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="BC10">
         <v>0.53</v>
@@ -5709,16 +5890,16 @@
         <v>0.2</v>
       </c>
       <c r="BE10">
-        <v>0.10600000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="BF10">
         <v>270</v>
       </c>
       <c r="BG10">
-        <v>28.620000000000005</v>
+        <v>28.62</v>
       </c>
       <c r="BH10" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="BI10">
         <v>400</v>
@@ -5766,42 +5947,42 @@
         <v>1055.68</v>
       </c>
       <c r="BX10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:76">
       <c r="B11" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="G11">
         <v>250</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="I11">
         <v>43758</v>
       </c>
       <c r="M11" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P11">
         <v>43744</v>
@@ -5813,7 +5994,7 @@
         <v>1962.5</v>
       </c>
       <c r="S11" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="T11">
         <v>0.5</v>
@@ -5822,25 +6003,25 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="W11" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB11" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="AC11">
         <v>83</v>
@@ -5876,10 +6057,10 @@
         <v>0</v>
       </c>
       <c r="AN11" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="AO11" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="AP11">
         <v>82</v>
@@ -5915,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="BA11" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="BC11">
         <v>0.77</v>
@@ -5927,22 +6108,22 @@
         <v>0.2</v>
       </c>
       <c r="BE11">
-        <v>0.15400000000000003</v>
+        <v>0.154</v>
       </c>
       <c r="BF11">
         <v>530</v>
       </c>
       <c r="BG11">
-        <v>81.620000000000019</v>
+        <v>81.62</v>
       </c>
       <c r="BH11" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="BI11">
         <v>900</v>
       </c>
       <c r="BJ11">
-        <v>0.46200000000000002</v>
+        <v>0.462</v>
       </c>
       <c r="BK11">
         <v>530</v>
@@ -5984,42 +6165,42 @@
         <v>2709.78</v>
       </c>
       <c r="BX11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:76">
       <c r="B12" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="G12">
         <v>5000</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="I12">
         <v>43758</v>
       </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="P12">
         <v>43744</v>
@@ -6031,7 +6212,7 @@
         <v>3600</v>
       </c>
       <c r="S12" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="T12">
         <v>2</v>
@@ -6040,34 +6221,34 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="W12" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Y12" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB12" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="AC12">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="AD12">
         <v>67.5</v>
       </c>
       <c r="AE12">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AF12">
         <v>2640</v>
@@ -6094,10 +6275,10 @@
         <v>0</v>
       </c>
       <c r="AN12" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AO12" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AP12">
         <v>38</v>
@@ -6106,7 +6287,7 @@
         <v>66.5</v>
       </c>
       <c r="AR12">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AS12">
         <v>2520</v>
@@ -6133,10 +6314,10 @@
         <v>0</v>
       </c>
       <c r="BA12" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB12" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="BC12">
         <v>0.26</v>
@@ -6145,16 +6326,16 @@
         <v>0.2</v>
       </c>
       <c r="BE12">
-        <v>5.2000000000000005E-2</v>
+        <v>0.052</v>
       </c>
       <c r="BF12">
         <v>2520</v>
       </c>
       <c r="BG12">
-        <v>131.04000000000002</v>
+        <v>131.04</v>
       </c>
       <c r="BH12" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="BI12">
         <v>500</v>
@@ -6202,42 +6383,42 @@
         <v>3587.84</v>
       </c>
       <c r="BX12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:76">
       <c r="B13" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="G13">
         <v>10100</v>
       </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="I13">
         <v>43749</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="P13">
         <v>43745</v>
@@ -6258,22 +6439,22 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="W13" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="X13" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="Z13" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="AA13" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AB13">
         <v>300</v>
@@ -6285,7 +6466,7 @@
         <v>545</v>
       </c>
       <c r="AE13">
-        <v>0.56325749999999997</v>
+        <v>0.5632575</v>
       </c>
       <c r="AF13">
         <v>2500</v>
@@ -6312,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AN13" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -6351,28 +6532,28 @@
         <v>0</v>
       </c>
       <c r="BA13" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB13" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="BC13">
-        <v>0.35425000000000001</v>
+        <v>0.35425</v>
       </c>
       <c r="BD13">
         <v>0.4</v>
       </c>
       <c r="BE13">
-        <v>0.14170000000000002</v>
+        <v>0.1417</v>
       </c>
       <c r="BF13">
         <v>2500</v>
       </c>
       <c r="BG13">
-        <v>354.25000000000006</v>
+        <v>354.25</v>
       </c>
       <c r="BH13" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="BI13">
         <v>300</v>
@@ -6417,45 +6598,45 @@
         <v>0</v>
       </c>
       <c r="BW13">
-        <v>3112.3937500000002</v>
+        <v>3112.39375</v>
       </c>
       <c r="BX13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:76">
       <c r="B14" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="G14">
         <v>3000</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="I14">
         <v>43749</v>
       </c>
       <c r="M14" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="P14">
         <v>43745</v>
@@ -6476,22 +6657,22 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="W14" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="X14" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="Z14" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="AA14" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="AB14">
         <v>300</v>
@@ -6503,13 +6684,13 @@
         <v>470</v>
       </c>
       <c r="AE14">
-        <v>0.24660899999999999</v>
+        <v>0.246609</v>
       </c>
       <c r="AF14">
         <v>840</v>
       </c>
       <c r="AG14">
-        <v>207.15155999999999</v>
+        <v>207.15156</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -6530,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="AN14" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -6569,19 +6750,19 @@
         <v>0</v>
       </c>
       <c r="BA14" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="BB14" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="BC14">
-        <v>0.15509999999999999</v>
+        <v>0.1551</v>
       </c>
       <c r="BD14">
         <v>0.4</v>
       </c>
       <c r="BE14">
-        <v>6.2039999999999998E-2</v>
+        <v>0.06204</v>
       </c>
       <c r="BF14">
         <v>2500</v>
@@ -6590,7 +6771,7 @@
         <v>155.1</v>
       </c>
       <c r="BH14" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="BI14">
         <v>300</v>
@@ -6635,291 +6816,292 @@
         <v>0</v>
       </c>
       <c r="BW14">
-        <v>1087.2515599999999</v>
+        <v>1087.25156</v>
       </c>
       <c r="BX14" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7670C8E-539E-4687-9682-3C163B3DD03C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-    </row>
-    <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="30" t="str">
+    <row r="1" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="3" t="str">
         <f>订单!B2</f>
         <v>308706TF彩盒</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="77" t="str">
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="str">
         <f>订单!B6</f>
         <v>裱啤贴</v>
       </c>
-      <c r="E2" s="77"/>
-    </row>
-    <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="30" t="str">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="str">
         <f>订单!F3</f>
         <v>CYDD2019110711</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="82">
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6">
         <f>订单!F4</f>
         <v>43776</v>
       </c>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="43" t="str">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="7" t="str">
         <f>订单!D3</f>
         <v>330*65*635</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="82">
+      <c r="C4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="6">
         <f>订单!H4</f>
         <v>43786</v>
       </c>
-      <c r="E4" s="82"/>
-    </row>
-    <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="32" t="str">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="str">
         <f>订单!D6</f>
         <v>330*65*635</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="82">
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6">
         <f>订单!B8</f>
         <v>0</v>
       </c>
-      <c r="E5" s="82"/>
-    </row>
-    <row r="6" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="32" t="str">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="str">
         <f>订单!B5</f>
         <v>单拼平口箱</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="77">
+      <c r="C6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="5">
         <f>订单!F6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="77"/>
-    </row>
-    <row r="7" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="33" t="str">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="str">
         <f>订单!F7</f>
-        <v>磨光</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="77">
+        <v>过油</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="5">
         <f>订单!G10</f>
         <v>664</v>
       </c>
-      <c r="E7" s="77"/>
-    </row>
-    <row r="8" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="32" t="str">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="str">
         <f>订单!H7</f>
         <v>绳加半包</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" s="77">
+      <c r="C8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="5">
         <f>订单!D5</f>
         <v>514</v>
       </c>
-      <c r="E8" s="77"/>
-    </row>
-    <row r="9" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79"/>
-      <c r="B10" s="1" t="str">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="str">
         <f>订单!C10</f>
         <v>350建晖</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="12">
         <f>订单!D10</f>
         <v>795</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="12">
         <f>订单!E10</f>
         <v>705</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="12">
         <f>订单!G10</f>
         <v>664</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
-      <c r="B11" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
-      <c r="B12" s="32" t="str">
+    <row r="11" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A12" s="13"/>
+      <c r="B12" s="5" t="str">
         <f>订单!C14</f>
         <v>BT E坑</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="5">
         <f>订单!D14</f>
         <v>794.5</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="5">
         <f>订单!E14</f>
         <v>704.5</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="5">
         <f>订单!G14</f>
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+    <row r="13" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A13" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A14" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A15" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A16" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:A12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>